--- a/Notificações de Multas - Fase Pastores.xlsx
+++ b/Notificações de Multas - Fase Pastores.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\GEST-O-DE-FROTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5269" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5301" uniqueCount="1886">
   <si>
     <t>Nº Fluig</t>
   </si>
@@ -5667,6 +5667,21 @@
   </si>
   <si>
     <t>AE00740144</t>
+  </si>
+  <si>
+    <t>2279253</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>A100034764</t>
+  </si>
+  <si>
+    <t>2279258</t>
+  </si>
+  <si>
+    <t>R 00207160</t>
   </si>
 </sst>
 </file>
@@ -5674,7 +5689,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00;\-&quot;R$&quot;#,##0.00;&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;\-&quot;R$&quot;#,##0.00;&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -5711,7 +5726,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5730,8 +5745,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U329">
-  <autoFilter ref="A1:U329"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U331">
+  <autoFilter ref="A1:U331"/>
   <tableColumns count="21">
     <tableColumn id="1" name="Nº Fluig"/>
     <tableColumn id="2" name="UF"/>
@@ -6022,10 +6037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U329"/>
+  <dimension ref="A1:U331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291:XFD291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27402,6 +27417,132 @@
         <v>293.47000000000003</v>
       </c>
     </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B330" t="s">
+        <v>22</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D330" t="s">
+        <v>123</v>
+      </c>
+      <c r="E330" t="s">
+        <v>124</v>
+      </c>
+      <c r="F330" t="s">
+        <v>124</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I330" t="s">
+        <v>28</v>
+      </c>
+      <c r="J330" t="s">
+        <v>902</v>
+      </c>
+      <c r="K330" s="1">
+        <v>45862</v>
+      </c>
+      <c r="L330" t="s">
+        <v>740</v>
+      </c>
+      <c r="M330" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N330" t="s">
+        <v>1855</v>
+      </c>
+      <c r="O330" s="2">
+        <v>45894</v>
+      </c>
+      <c r="P330" s="3"/>
+      <c r="Q330" t="s">
+        <v>127</v>
+      </c>
+      <c r="R330" t="s">
+        <v>128</v>
+      </c>
+      <c r="S330" t="s">
+        <v>1883</v>
+      </c>
+      <c r="T330" s="4">
+        <v>1</v>
+      </c>
+      <c r="U330" s="5">
+        <v>880.41</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B331" t="s">
+        <v>22</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D331" t="s">
+        <v>123</v>
+      </c>
+      <c r="E331" t="s">
+        <v>124</v>
+      </c>
+      <c r="F331" t="s">
+        <v>124</v>
+      </c>
+      <c r="G331" t="s">
+        <v>836</v>
+      </c>
+      <c r="H331" t="s">
+        <v>837</v>
+      </c>
+      <c r="I331" t="s">
+        <v>28</v>
+      </c>
+      <c r="J331" t="s">
+        <v>29</v>
+      </c>
+      <c r="K331" s="1">
+        <v>45870</v>
+      </c>
+      <c r="L331" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M331" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N331" t="s">
+        <v>1799</v>
+      </c>
+      <c r="O331" s="2">
+        <v>45894</v>
+      </c>
+      <c r="P331" s="3"/>
+      <c r="Q331" t="s">
+        <v>127</v>
+      </c>
+      <c r="R331" t="s">
+        <v>128</v>
+      </c>
+      <c r="S331" t="s">
+        <v>1885</v>
+      </c>
+      <c r="T331" s="4">
+        <v>1</v>
+      </c>
+      <c r="U331" s="5">
+        <v>130.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Notificações de Multas - Fase Pastores.xlsx
+++ b/Notificações de Multas - Fase Pastores.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\GEST-O-DE-FROTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5301" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5269" uniqueCount="1881">
   <si>
     <t>Nº Fluig</t>
   </si>
@@ -5667,21 +5667,6 @@
   </si>
   <si>
     <t>AE00740144</t>
-  </si>
-  <si>
-    <t>2279253</t>
-  </si>
-  <si>
-    <t>02/10/2025</t>
-  </si>
-  <si>
-    <t>A100034764</t>
-  </si>
-  <si>
-    <t>2279258</t>
-  </si>
-  <si>
-    <t>R 00207160</t>
   </si>
 </sst>
 </file>
@@ -5689,7 +5674,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;\-&quot;R$&quot;#,##0.00;&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00;\-&quot;R$&quot;#,##0.00;&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -5726,7 +5711,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5745,8 +5730,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U331">
-  <autoFilter ref="A1:U331"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U329">
+  <autoFilter ref="A1:U329"/>
   <tableColumns count="21">
     <tableColumn id="1" name="Nº Fluig"/>
     <tableColumn id="2" name="UF"/>
@@ -6037,10 +6022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U331"/>
+  <dimension ref="A1:U329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:XFD291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27417,132 +27402,6 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B330" t="s">
-        <v>22</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D330" t="s">
-        <v>123</v>
-      </c>
-      <c r="E330" t="s">
-        <v>124</v>
-      </c>
-      <c r="F330" t="s">
-        <v>124</v>
-      </c>
-      <c r="G330" t="s">
-        <v>1847</v>
-      </c>
-      <c r="H330" t="s">
-        <v>1848</v>
-      </c>
-      <c r="I330" t="s">
-        <v>28</v>
-      </c>
-      <c r="J330" t="s">
-        <v>902</v>
-      </c>
-      <c r="K330" s="1">
-        <v>45862</v>
-      </c>
-      <c r="L330" t="s">
-        <v>740</v>
-      </c>
-      <c r="M330" t="s">
-        <v>1882</v>
-      </c>
-      <c r="N330" t="s">
-        <v>1855</v>
-      </c>
-      <c r="O330" s="2">
-        <v>45894</v>
-      </c>
-      <c r="P330" s="3"/>
-      <c r="Q330" t="s">
-        <v>127</v>
-      </c>
-      <c r="R330" t="s">
-        <v>128</v>
-      </c>
-      <c r="S330" t="s">
-        <v>1883</v>
-      </c>
-      <c r="T330" s="4">
-        <v>1</v>
-      </c>
-      <c r="U330" s="5">
-        <v>880.41</v>
-      </c>
-    </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B331" t="s">
-        <v>22</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D331" t="s">
-        <v>123</v>
-      </c>
-      <c r="E331" t="s">
-        <v>124</v>
-      </c>
-      <c r="F331" t="s">
-        <v>124</v>
-      </c>
-      <c r="G331" t="s">
-        <v>836</v>
-      </c>
-      <c r="H331" t="s">
-        <v>837</v>
-      </c>
-      <c r="I331" t="s">
-        <v>28</v>
-      </c>
-      <c r="J331" t="s">
-        <v>29</v>
-      </c>
-      <c r="K331" s="1">
-        <v>45870</v>
-      </c>
-      <c r="L331" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M331" t="s">
-        <v>1882</v>
-      </c>
-      <c r="N331" t="s">
-        <v>1799</v>
-      </c>
-      <c r="O331" s="2">
-        <v>45894</v>
-      </c>
-      <c r="P331" s="3"/>
-      <c r="Q331" t="s">
-        <v>127</v>
-      </c>
-      <c r="R331" t="s">
-        <v>128</v>
-      </c>
-      <c r="S331" t="s">
-        <v>1885</v>
-      </c>
-      <c r="T331" s="4">
-        <v>1</v>
-      </c>
-      <c r="U331" s="5">
-        <v>130.16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
